--- a/scene_cat_exp_2023.2.2_english/input_files/88_scenecat_categorization_living_rooms_2.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/88_scenecat_categorization_living_rooms_2.xlsx
@@ -497,53 +497,53 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_uegbb.png</t>
+          <t>stimuli/img_g13d5.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>78.80952380952381</v>
+        <v>73</v>
       </c>
       <c r="N2">
-        <v>61.52380952380953</v>
+        <v>51.51111111111111</v>
       </c>
       <c r="O2">
-        <v>70.16666666666667</v>
+        <v>62.25555555555556</v>
       </c>
       <c r="P2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -666,38 +666,38 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_91csq.png</t>
+          <t>stimuli/img_ub9nn.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>50.44736842105263</v>
+        <v>78.77142857142857</v>
       </c>
       <c r="N4">
-        <v>28.34210526315789</v>
+        <v>60.37142857142857</v>
       </c>
       <c r="O4">
-        <v>39.39473684210526</v>
+        <v>69.57142857142857</v>
       </c>
       <c r="P4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -728,53 +728,53 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_3sw8t.png</t>
+          <t>stimuli/img_b2jli.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>67.48888888888889</v>
+        <v>83.15625</v>
       </c>
       <c r="N5">
-        <v>48.51111111111111</v>
+        <v>63.8125</v>
       </c>
       <c r="O5">
-        <v>58</v>
+        <v>73.484375</v>
       </c>
       <c r="P5">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -820,38 +820,38 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_8dmpq.png</t>
+          <t>stimuli/img_a9he3.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>30.65909090909091</v>
+        <v>83.06521739130434</v>
       </c>
       <c r="N6">
-        <v>24.11363636363636</v>
+        <v>63.95652173913044</v>
       </c>
       <c r="O6">
-        <v>27.38636363636364</v>
+        <v>73.51086956521739</v>
       </c>
       <c r="P6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -882,35 +882,35 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_o30wb.png</t>
+          <t>stimuli/img_md6k3.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>81.06666666666666</v>
+        <v>81.57142857142857</v>
       </c>
       <c r="N7">
-        <v>65.37777777777778</v>
+        <v>63.66666666666666</v>
       </c>
       <c r="O7">
-        <v>73.22222222222223</v>
+        <v>72.61904761904762</v>
       </c>
       <c r="P7">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -974,20 +974,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_3tnh4.png</t>
+          <t>stimuli/img_gv750.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>80.43243243243244</v>
+        <v>83.51428571428572</v>
       </c>
       <c r="N8">
-        <v>58.72972972972973</v>
+        <v>61.88571428571429</v>
       </c>
       <c r="O8">
-        <v>69.58108108108108</v>
+        <v>72.7</v>
       </c>
       <c r="P8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1051,20 +1051,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_463mq.png</t>
+          <t>stimuli/img_swcci.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>51.35294117647059</v>
+        <v>49.82926829268293</v>
       </c>
       <c r="N9">
-        <v>30.20588235294118</v>
+        <v>28.46341463414634</v>
       </c>
       <c r="O9">
-        <v>40.77941176470588</v>
+        <v>39.14634146341464</v>
       </c>
       <c r="P9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -1128,38 +1128,38 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_165pk.png</t>
+          <t>stimuli/img_c0vzo.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>85.73333333333333</v>
+        <v>21.51162790697675</v>
       </c>
       <c r="N10">
-        <v>69.22222222222223</v>
+        <v>8.232558139534884</v>
       </c>
       <c r="O10">
-        <v>77.47777777777779</v>
+        <v>14.87209302325581</v>
       </c>
       <c r="P10">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1190,53 +1190,53 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_jpldg.png</t>
+          <t>stimuli/img_xtb79.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>79.54545454545455</v>
+        <v>55.59375</v>
       </c>
       <c r="N11">
-        <v>57.75</v>
+        <v>31.40625</v>
       </c>
       <c r="O11">
-        <v>68.64772727272728</v>
+        <v>43.5</v>
       </c>
       <c r="P11">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1267,53 +1267,53 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_c30d1.png</t>
+          <t>stimuli/img_8dmpq.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>78.875</v>
+        <v>30.65909090909091</v>
       </c>
       <c r="N12">
-        <v>60.34375</v>
+        <v>24.11363636363636</v>
       </c>
       <c r="O12">
-        <v>69.609375</v>
+        <v>27.38636363636364</v>
       </c>
       <c r="P12">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1344,53 +1344,53 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_xtb79.png</t>
+          <t>stimuli/img_xzyzy.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>55.59375</v>
+        <v>85.37209302325581</v>
       </c>
       <c r="N13">
-        <v>31.40625</v>
+        <v>68.90697674418605</v>
       </c>
       <c r="O13">
-        <v>43.5</v>
+        <v>77.13953488372093</v>
       </c>
       <c r="P13">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1436,38 +1436,38 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_a9he3.png</t>
+          <t>stimuli/img_3sw8t.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>83.06521739130434</v>
+        <v>67.48888888888889</v>
       </c>
       <c r="N14">
-        <v>63.95652173913044</v>
+        <v>48.51111111111111</v>
       </c>
       <c r="O14">
-        <v>73.51086956521739</v>
+        <v>58</v>
       </c>
       <c r="P14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1498,53 +1498,53 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_7caxh.png</t>
+          <t>stimuli/img_pbsj1.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>83.38095238095238</v>
+        <v>73.88636363636364</v>
       </c>
       <c r="N15">
-        <v>64.26190476190476</v>
+        <v>51.52272727272727</v>
       </c>
       <c r="O15">
-        <v>73.82142857142857</v>
+        <v>62.70454545454545</v>
       </c>
       <c r="P15">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V15">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1590,38 +1590,38 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_gv750.png</t>
+          <t>stimuli/img_uhmld.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>83.51428571428572</v>
+        <v>54.19354838709678</v>
       </c>
       <c r="N16">
-        <v>61.88571428571429</v>
+        <v>32</v>
       </c>
       <c r="O16">
-        <v>72.7</v>
+        <v>43.09677419354838</v>
       </c>
       <c r="P16">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1652,53 +1652,53 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_7wquy.png</t>
+          <t>stimuli/img_i6wsx.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>50.59375</v>
+        <v>79.07142857142857</v>
       </c>
       <c r="N17">
-        <v>30.59375</v>
+        <v>58</v>
       </c>
       <c r="O17">
-        <v>40.59375</v>
+        <v>68.53571428571428</v>
       </c>
       <c r="P17">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1744,35 +1744,35 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_w8yhd.png</t>
+          <t>stimuli/img_wgddx.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>55.74418604651163</v>
+        <v>45.6304347826087</v>
       </c>
       <c r="N18">
-        <v>38.90697674418605</v>
+        <v>34.30434782608695</v>
       </c>
       <c r="O18">
-        <v>47.32558139534883</v>
+        <v>39.96739130434783</v>
       </c>
       <c r="P18">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V18">
         <v>4</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_ub9nn.png</t>
+          <t>stimuli/img_c30d1.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>78.77142857142857</v>
+        <v>78.875</v>
       </c>
       <c r="N19">
-        <v>60.37142857142857</v>
+        <v>60.34375</v>
       </c>
       <c r="O19">
-        <v>69.57142857142857</v>
+        <v>69.609375</v>
       </c>
       <c r="P19">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -1883,53 +1883,53 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_uhmld.png</t>
+          <t>stimuli/img_o30wb.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>54.19354838709678</v>
+        <v>81.06666666666666</v>
       </c>
       <c r="N20">
-        <v>32</v>
+        <v>65.37777777777778</v>
       </c>
       <c r="O20">
-        <v>43.09677419354838</v>
+        <v>73.22222222222223</v>
       </c>
       <c r="P20">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1960,53 +1960,53 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_i6wsx.png</t>
+          <t>stimuli/img_91csq.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>79.07142857142857</v>
+        <v>50.44736842105263</v>
       </c>
       <c r="N21">
-        <v>58</v>
+        <v>28.34210526315789</v>
       </c>
       <c r="O21">
-        <v>68.53571428571428</v>
+        <v>39.39473684210526</v>
       </c>
       <c r="P21">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2037,53 +2037,53 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_dg5h7.png</t>
+          <t>stimuli/img_7wquy.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>88.72093023255815</v>
+        <v>50.59375</v>
       </c>
       <c r="N22">
-        <v>76.06976744186046</v>
+        <v>30.59375</v>
       </c>
       <c r="O22">
-        <v>82.3953488372093</v>
+        <v>40.59375</v>
       </c>
       <c r="P22">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2129,17 +2129,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_lgyo6.png</t>
+          <t>stimuli/img_awuev.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>54.68421052631579</v>
+        <v>44.21052631578947</v>
       </c>
       <c r="N23">
-        <v>27.18421052631579</v>
+        <v>24.26315789473684</v>
       </c>
       <c r="O23">
-        <v>40.93421052631579</v>
+        <v>34.23684210526316</v>
       </c>
       <c r="P23">
         <v>38</v>
@@ -2191,53 +2191,53 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_g13d5.png</t>
+          <t>stimuli/img_ymgcb.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>73</v>
+        <v>83.73684210526316</v>
       </c>
       <c r="N24">
-        <v>51.51111111111111</v>
+        <v>61.13157894736842</v>
       </c>
       <c r="O24">
-        <v>62.25555555555556</v>
+        <v>72.43421052631579</v>
       </c>
       <c r="P24">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V24">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2268,53 +2268,53 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_jkm86.png</t>
+          <t>stimuli/img_7caxh.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>58.32558139534883</v>
+        <v>83.38095238095238</v>
       </c>
       <c r="N25">
-        <v>38.65116279069768</v>
+        <v>64.26190476190476</v>
       </c>
       <c r="O25">
-        <v>48.48837209302326</v>
+        <v>73.82142857142857</v>
       </c>
       <c r="P25">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V25">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2345,53 +2345,53 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_c0vzo.png</t>
+          <t>stimuli/img_lgyo6.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>21.51162790697675</v>
+        <v>54.68421052631579</v>
       </c>
       <c r="N26">
-        <v>8.232558139534884</v>
+        <v>27.18421052631579</v>
       </c>
       <c r="O26">
-        <v>14.87209302325581</v>
+        <v>40.93421052631579</v>
       </c>
       <c r="P26">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2437,38 +2437,38 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_wgddx.png</t>
+          <t>stimuli/img_jpldg.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>45.6304347826087</v>
+        <v>79.54545454545455</v>
       </c>
       <c r="N27">
-        <v>34.30434782608695</v>
+        <v>57.75</v>
       </c>
       <c r="O27">
-        <v>39.96739130434783</v>
+        <v>68.64772727272728</v>
       </c>
       <c r="P27">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V27">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -2514,17 +2514,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_5jy9c.png</t>
+          <t>stimuli/img_dg5h7.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>87.37209302325581</v>
+        <v>88.72093023255815</v>
       </c>
       <c r="N28">
-        <v>79.18604651162791</v>
+        <v>76.06976744186046</v>
       </c>
       <c r="O28">
-        <v>83.27906976744185</v>
+        <v>82.3953488372093</v>
       </c>
       <c r="P28">
         <v>43</v>
@@ -2542,7 +2542,7 @@
         <v>10</v>
       </c>
       <c r="U28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V28">
         <v>10</v>
@@ -2576,53 +2576,53 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_md6k3.png</t>
+          <t>stimuli/img_165pk.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>81.57142857142857</v>
+        <v>85.73333333333333</v>
       </c>
       <c r="N29">
-        <v>63.66666666666666</v>
+        <v>69.22222222222223</v>
       </c>
       <c r="O29">
-        <v>72.61904761904762</v>
+        <v>77.47777777777779</v>
       </c>
       <c r="P29">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V29">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2668,38 +2668,38 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_ys3qz.png</t>
+          <t>stimuli/img_uegbb.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>46.79545454545455</v>
+        <v>78.80952380952381</v>
       </c>
       <c r="N30">
-        <v>31.20454545454545</v>
+        <v>61.52380952380953</v>
       </c>
       <c r="O30">
-        <v>39</v>
+        <v>70.16666666666667</v>
       </c>
       <c r="P30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -2730,53 +2730,53 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_zxvl3.png</t>
+          <t>stimuli/img_ys3qz.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>68.78260869565217</v>
+        <v>46.79545454545455</v>
       </c>
       <c r="N31">
-        <v>47.56521739130435</v>
+        <v>31.20454545454545</v>
       </c>
       <c r="O31">
-        <v>58.17391304347827</v>
+        <v>39</v>
       </c>
       <c r="P31">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -2807,53 +2807,53 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_b2jli.png</t>
+          <t>stimuli/img_jkm86.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>83.15625</v>
+        <v>58.32558139534883</v>
       </c>
       <c r="N32">
-        <v>63.8125</v>
+        <v>38.65116279069768</v>
       </c>
       <c r="O32">
-        <v>73.484375</v>
+        <v>48.48837209302326</v>
       </c>
       <c r="P32">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V32">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -2884,53 +2884,53 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_ymgcb.png</t>
+          <t>stimuli/img_nb8p4.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>83.73684210526316</v>
+        <v>16.36170212765957</v>
       </c>
       <c r="N33">
-        <v>61.13157894736842</v>
+        <v>12.70212765957447</v>
       </c>
       <c r="O33">
-        <v>72.43421052631579</v>
+        <v>14.53191489361702</v>
       </c>
       <c r="P33">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V33">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2976,38 +2976,38 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_xzyzy.png</t>
+          <t>stimuli/img_rych7.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>85.37209302325581</v>
+        <v>30.4468085106383</v>
       </c>
       <c r="N34">
-        <v>68.90697674418605</v>
+        <v>23.4468085106383</v>
       </c>
       <c r="O34">
-        <v>77.13953488372093</v>
+        <v>26.9468085106383</v>
       </c>
       <c r="P34">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="V34">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3053,38 +3053,38 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_9bkl9.png</t>
+          <t>stimuli/img_w8yhd.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>46.62162162162162</v>
+        <v>55.74418604651163</v>
       </c>
       <c r="N35">
-        <v>34.27027027027027</v>
+        <v>38.90697674418605</v>
       </c>
       <c r="O35">
-        <v>40.44594594594595</v>
+        <v>47.32558139534883</v>
       </c>
       <c r="P35">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V35">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -3115,53 +3115,53 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_nb8p4.png</t>
+          <t>stimuli/img_th7xh.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>16.36170212765957</v>
+        <v>82.35897435897436</v>
       </c>
       <c r="N36">
-        <v>12.70212765957447</v>
+        <v>65.53846153846153</v>
       </c>
       <c r="O36">
-        <v>14.53191489361702</v>
+        <v>73.94871794871796</v>
       </c>
       <c r="P36">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -3192,53 +3192,53 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_th7xh.png</t>
+          <t>stimuli/img_5jy9c.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>82.35897435897436</v>
+        <v>87.37209302325581</v>
       </c>
       <c r="N37">
-        <v>65.53846153846153</v>
+        <v>79.18604651162791</v>
       </c>
       <c r="O37">
-        <v>73.94871794871796</v>
+        <v>83.27906976744185</v>
       </c>
       <c r="P37">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V37">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3269,53 +3269,53 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_awuev.png</t>
+          <t>stimuli/img_zxvl3.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>44.21052631578947</v>
+        <v>68.78260869565217</v>
       </c>
       <c r="N38">
-        <v>24.26315789473684</v>
+        <v>47.56521739130435</v>
       </c>
       <c r="O38">
-        <v>34.23684210526316</v>
+        <v>58.17391304347827</v>
       </c>
       <c r="P38">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -3361,38 +3361,38 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_rych7.png</t>
+          <t>stimuli/img_9bkl9.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>30.4468085106383</v>
+        <v>46.62162162162162</v>
       </c>
       <c r="N39">
-        <v>23.4468085106383</v>
+        <v>34.27027027027027</v>
       </c>
       <c r="O39">
-        <v>26.9468085106383</v>
+        <v>40.44594594594595</v>
       </c>
       <c r="P39">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -3423,53 +3423,53 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_pbsj1.png</t>
+          <t>stimuli/img_463mq.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>73.88636363636364</v>
+        <v>51.35294117647059</v>
       </c>
       <c r="N40">
-        <v>51.52272727272727</v>
+        <v>30.20588235294118</v>
       </c>
       <c r="O40">
-        <v>62.70454545454545</v>
+        <v>40.77941176470588</v>
       </c>
       <c r="P40">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Q40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3515,38 +3515,38 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_swcci.png</t>
+          <t>stimuli/img_3tnh4.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>49.82926829268293</v>
+        <v>80.43243243243244</v>
       </c>
       <c r="N41">
-        <v>28.46341463414634</v>
+        <v>58.72972972972973</v>
       </c>
       <c r="O41">
-        <v>39.14634146341464</v>
+        <v>69.58108108108108</v>
       </c>
       <c r="P41">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
